--- a/Datos/Database by set/Set with text box/Xlsx sets/Gateway 2008 (PG08).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Gateway 2008 (PG08).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,315 +444,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boggart Ram-Gang</t>
+          <t>('Boggart Ram-Gang', ['{R/G}{R/G}{R/G}', 'Creature — Goblin Warrior', 'Haste', 'Wither (This deals damage to creatures in the form of -1/-1 counters.)', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{R/G}{R/G}{R/G}</t>
+          <t>("Cenn's Tactician", ['{W}', 'Creature — Kithkin Soldier', '{W}, {T}: Put a +1/+1 counter on target Soldier creature.', 'Each creature you control with a +1/+1 counter on it can block an additional creature each combat.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Goblin Warrior</t>
+          <t>('Duergar Hedge-Mage', ['{2}{R/W}', 'Creature — Dwarf Shaman', 'When Duergar Hedge-Mage enters the battlefield, if you control two or more Mountains, you may destroy target artifact.', 'When Duergar Hedge-Mage enters the battlefield, if you control two or more Plains, you may destroy target enchantment.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Haste</t>
+          <t>('Gravedigger', ['{3}{B}', 'Creature — Zombie', 'When Gravedigger enters the battlefield, you may return target creature card from your graveyard to your hand.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Wither (This deals damage to creatures in the form of -1/-1 counters.)</t>
+          <t>('Lava Axe', ['{4}{R}', 'Sorcery', 'Lava Axe deals 5 damage to target player or planeswalker.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>("Oona's Blackguard", ['{1}{B}', 'Creature — Faerie Rogue', 'Flying', 'Each other Rogue creature you control enters the battlefield with an additional +1/+1 counter on it.', 'Whenever a creature you control with a +1/+1 counter on it deals combat damage to a player, that player discards a card.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cenn's Tactician</t>
+          <t>('Selkie Hedge-Mage', ['{2}{G/U}', 'Creature — Merfolk Wizard', 'When Selkie Hedge-Mage enters the battlefield, if you control two or more Forests, you may gain 3 life.', 'When Selkie Hedge-Mage enters the battlefield, if you control two or more Islands, you may return target tapped creature to its owner’s hand.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Kithkin Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{W}, {T}: Put a +1/+1 counter on target Soldier creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Each creature you control with a +1/+1 counter on it can block an additional creature each combat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Duergar Hedge-Mage</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{2}{R/W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Creature — Dwarf Shaman</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>When Duergar Hedge-Mage enters the battlefield, if you control two or more Mountains, you may destroy target artifact.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>When Duergar Hedge-Mage enters the battlefield, if you control two or more Plains, you may destroy target enchantment.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gravedigger</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{3}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>When Gravedigger enters the battlefield, you may return target creature card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Lava Axe</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{4}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Lava Axe deals 5 damage to target player or planeswalker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Oona's Blackguard</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Creature — Faerie Rogue</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Each other Rogue creature you control enters the battlefield with an additional +1/+1 counter on it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Whenever a creature you control with a +1/+1 counter on it deals combat damage to a player, that player discards a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Selkie Hedge-Mage</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{2}{G/U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Creature — Merfolk Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>When Selkie Hedge-Mage enters the battlefield, if you control two or more Forests, you may gain 3 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>When Selkie Hedge-Mage enters the battlefield, if you control two or more Islands, you may return target tapped creature to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Wilt-Leaf Cavaliers</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>{G/W}{G/W}{G/W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Creature — Elf Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>3/4</t>
+          <t>('Wilt-Leaf Cavaliers', ['{G/W}{G/W}{G/W}', 'Creature — Elf Knight', 'Vigilance', '3/4'])</t>
         </is>
       </c>
     </row>
